--- a/052c doc/日德兰海战后各版本精度信息统计.xlsx
+++ b/052c doc/日德兰海战后各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6890BF3C-BE35-4891-9711-98A65D089935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7752EC-A18C-4F68-860B-3A77A1A00D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,14 @@
   </si>
   <si>
     <t>woC_dcpfccmpt50cov9xrd70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三段学习率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -984,8 +992,18 @@
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">

--- a/052c doc/日德兰海战后各版本精度信息统计.xlsx
+++ b/052c doc/日德兰海战后各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7752EC-A18C-4F68-860B-3A77A1A00D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C82DC43-894D-438A-81E9-5BC3B8A39851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,10 @@
   </si>
   <si>
     <t>ep26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +588,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1016,8 +1020,18 @@
       <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">

--- a/052c doc/日德兰海战后各版本精度信息统计.xlsx
+++ b/052c doc/日德兰海战后各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C82DC43-894D-438A-81E9-5BC3B8A39851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCB0165-F61C-4130-B45A-6A6E3EDC3ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8136" yWindow="1044" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,26 @@
   </si>
   <si>
     <t>ep42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_cov1xrd70fc70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_cov1xrd60fc60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_cov1xrd80fc80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep43</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1013,8 +1033,18 @@
       <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1033,111 +1063,130 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/052c doc/日德兰海战后各版本精度信息统计.xlsx
+++ b/052c doc/日德兰海战后各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCB0165-F61C-4130-B45A-6A6E3EDC3ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBDB862-A226-4069-867C-9B0B0DE225CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8136" yWindow="1044" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,14 @@
   </si>
   <si>
     <t>ep43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1067,6 +1075,18 @@
       <c r="A33" t="s">
         <v>41</v>
       </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1180,8 +1200,18 @@
       <c r="A48" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.9385</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">

--- a/052c doc/日德兰海战后各版本精度信息统计.xlsx
+++ b/052c doc/日德兰海战后各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBDB862-A226-4069-867C-9B0B0DE225CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E63DCA-E3D7-41B7-B456-B30B99D11BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,10 @@
   </si>
   <si>
     <t>ep42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +620,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1106,8 +1110,18 @@
       <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.9425</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.9919</v>
+      </c>
+      <c r="E36" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">

--- a/052c doc/日德兰海战后各版本精度信息统计.xlsx
+++ b/052c doc/日德兰海战后各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E63DCA-E3D7-41B7-B456-B30B99D11BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E62E1E-2309-44B7-B896-4BDB1A81CF6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>woC_dcpfctsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>woC_dcpfctspcmpt50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>woC_dcpfctsmp1cmpt50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>woC_cov1xrd60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,6 +280,26 @@
   </si>
   <si>
     <t>ep32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_dcpfctsp1cmpt50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_dcp1fctsp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep49</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +632,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1041,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1">
         <v>0.94099999999999995</v>
@@ -1038,7 +1050,7 @@
         <v>0.99139999999999995</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1046,7 +1058,7 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1">
         <v>0.94069999999999998</v>
@@ -1055,7 +1067,7 @@
         <v>0.99080000000000001</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,7 +1075,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1">
         <v>0.94320000000000004</v>
@@ -1072,7 +1084,7 @@
         <v>0.99170000000000003</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,7 +1092,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="1">
         <v>0.94030000000000002</v>
@@ -1089,29 +1101,39 @@
         <v>0.99080000000000001</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1">
         <v>0.9425</v>
@@ -1120,26 +1142,36 @@
         <v>0.9919</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -1151,68 +1183,78 @@
         <v>0.99119999999999997</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -1224,12 +1266,12 @@
         <v>0.98919999999999997</v>
       </c>
       <c r="E48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/052c doc/日德兰海战后各版本精度信息统计.xlsx
+++ b/052c doc/日德兰海战后各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E62E1E-2309-44B7-B896-4BDB1A81CF6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5628BB92-9985-4D6C-BB27-B985DDDE42A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="612" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,50 +195,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>woC_dcpfctspcmpt50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>woC_dcpfctsp1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>woC_cov1xrd60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>woC_cov1xrd70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>woC_cov1xrd80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woC_dcpfccov9xrd60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>woC_dcpfccov9xrd70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>woC_dcpfccov9xrd80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woC_dcpfccmpt50cov9xrd80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woC_dcpfccmpt50cov9xrd60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woC_dcpfccmpt50cov9xrd70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三段学习率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,14 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>woC_cov1xrd60fc60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woC_cov1xrd80fc80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ep43</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +260,22 @@
   </si>
   <si>
     <t>ep49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_dcpfctsp1cmpt67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_dcpfccov9xrd70cmpt50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aw_dcp1fctsp1cmpt50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ep28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,9 +605,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -1041,7 +1017,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1">
         <v>0.94099999999999995</v>
@@ -1050,7 +1026,7 @@
         <v>0.99139999999999995</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,7 +1034,7 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1">
         <v>0.94069999999999998</v>
@@ -1067,7 +1043,7 @@
         <v>0.99080000000000001</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,7 +1051,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1">
         <v>0.94320000000000004</v>
@@ -1084,7 +1060,7 @@
         <v>0.99170000000000003</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,7 +1068,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1">
         <v>0.94030000000000002</v>
@@ -1101,15 +1077,15 @@
         <v>0.99080000000000001</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1">
         <v>0.94520000000000004</v>
@@ -1118,161 +1094,164 @@
         <v>0.99139999999999995</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.9425</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.9919</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
-        <v>0.9425</v>
+        <v>0.94079999999999997</v>
       </c>
       <c r="D36" s="1">
-        <v>0.9919</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
-        <v>0.94079999999999997</v>
+        <v>0.93910000000000005</v>
       </c>
       <c r="D37" s="1">
-        <v>0.99099999999999999</v>
+        <v>0.99119999999999997</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="1">
-        <v>0.93910000000000005</v>
+        <v>0.9385</v>
       </c>
       <c r="D39" s="1">
-        <v>0.99119999999999997</v>
+        <v>0.98919999999999997</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="E41" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
-        <v>0.93920000000000003</v>
+        <v>0.94180000000000008</v>
       </c>
       <c r="D42" s="1">
-        <v>0.99019999999999997</v>
+        <v>0.99120000000000008</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>52</v>
-      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.9385</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.98919999999999997</v>
-      </c>
-      <c r="E48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
